--- a/report/v2/Report.xlsx
+++ b/report/v2/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galax\Desktop\PowerConsumptionAnalysis\report\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B766107-D424-44E9-93A0-E88900102415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4814EF3-78CA-470F-AD85-FB644A21BF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Consumption" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="21">
   <si>
     <t>BASIC</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>RASPBERRY SAVING</t>
+  </si>
+  <si>
+    <t>workload</t>
   </si>
 </sst>
 </file>
@@ -173,9 +176,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -188,6 +188,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -17619,7 +17622,7 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" activeCellId="2" sqref="B10:U10 B22:U22 B34:U34"/>
+      <selection activeCell="B39" sqref="B39:U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17628,33 +17631,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -17719,7 +17722,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4">
@@ -17784,7 +17787,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -17849,7 +17852,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6">
@@ -17914,7 +17917,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -17979,7 +17982,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8">
@@ -18044,7 +18047,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
@@ -18133,7 +18136,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
@@ -18222,33 +18225,33 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B15">
@@ -18313,7 +18316,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -18378,7 +18381,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B17">
@@ -18443,7 +18446,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
@@ -18508,7 +18511,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
@@ -18573,7 +18576,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B20">
@@ -18638,7 +18641,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22">
@@ -18727,7 +18730,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23">
@@ -18816,33 +18819,33 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
     </row>
     <row r="26" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B27">
@@ -18907,7 +18910,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B28">
@@ -18972,7 +18975,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B29">
@@ -19037,7 +19040,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B30">
@@ -19102,7 +19105,7 @@
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B31">
@@ -19167,7 +19170,7 @@
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B32">
@@ -19232,7 +19235,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B34">
@@ -19321,7 +19324,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B35">
@@ -19517,29 +19520,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" spans="1:41" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:41" x14ac:dyDescent="0.3">
@@ -19665,7 +19668,7 @@
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4">
@@ -19790,7 +19793,7 @@
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5">
@@ -19915,7 +19918,7 @@
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6">
@@ -20040,7 +20043,7 @@
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -20165,7 +20168,7 @@
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8">
@@ -20290,7 +20293,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -20415,29 +20418,29 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" spans="1:41" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
@@ -20563,7 +20566,7 @@
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14">
@@ -20688,7 +20691,7 @@
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B15">
@@ -20813,7 +20816,7 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B16">
@@ -20938,7 +20941,7 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B17">
@@ -21063,7 +21066,7 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B18">
@@ -21188,7 +21191,7 @@
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B19">
@@ -21313,29 +21316,29 @@
       </c>
     </row>
     <row r="21" spans="1:41" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
     </row>
     <row r="22" spans="1:41" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:41" x14ac:dyDescent="0.3">
@@ -21461,7 +21464,7 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24">
@@ -21586,7 +21589,7 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B25">
@@ -21711,7 +21714,7 @@
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B26">
@@ -21836,7 +21839,7 @@
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B27">
@@ -21961,7 +21964,7 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B28">
@@ -22086,7 +22089,7 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B29">
@@ -22222,10 +22225,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF82689-251A-4C87-937C-6D6816D5D797}">
-  <dimension ref="A2:V13"/>
+  <dimension ref="A2:V41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22234,7 +22237,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -22302,7 +22305,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -22368,7 +22371,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -22436,7 +22439,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -22502,7 +22505,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -22570,7 +22573,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -22636,7 +22639,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -22704,7 +22707,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -22770,7 +22773,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -22838,7 +22841,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -22904,7 +22907,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
@@ -22972,7 +22975,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -23035,6 +23038,256 @@
       </c>
       <c r="V13">
         <v>64.253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>375</v>
+      </c>
+      <c r="B22">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="C22">
+        <v>3.7389999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>A22+375</f>
+        <v>750</v>
+      </c>
+      <c r="B23">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="C23">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>A23+375</f>
+        <v>1125</v>
+      </c>
+      <c r="B24">
+        <v>10.464</v>
+      </c>
+      <c r="C24">
+        <v>7.6820000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>A24+375</f>
+        <v>1500</v>
+      </c>
+      <c r="B25">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="C25">
+        <v>12.981999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>A25+375</f>
+        <v>1875</v>
+      </c>
+      <c r="B26">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="C26">
+        <v>16.062999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>A26+375</f>
+        <v>2250</v>
+      </c>
+      <c r="B27">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="C27">
+        <v>19.143999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>A27+375</f>
+        <v>2625</v>
+      </c>
+      <c r="B28">
+        <v>11.006</v>
+      </c>
+      <c r="C28">
+        <v>19.637</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>A28+375</f>
+        <v>3000</v>
+      </c>
+      <c r="B29">
+        <v>15.877000000000001</v>
+      </c>
+      <c r="C29">
+        <v>19.390999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>A29+375</f>
+        <v>3375</v>
+      </c>
+      <c r="B30">
+        <v>20.207000000000001</v>
+      </c>
+      <c r="C30">
+        <v>19.513999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f>A30+375</f>
+        <v>3750</v>
+      </c>
+      <c r="B31">
+        <v>25.259</v>
+      </c>
+      <c r="C31">
+        <v>19.143999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>A31+375</f>
+        <v>4125</v>
+      </c>
+      <c r="B32">
+        <v>29.047000000000001</v>
+      </c>
+      <c r="C32">
+        <v>19.637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>A32+375</f>
+        <v>4500</v>
+      </c>
+      <c r="B33">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="C33">
+        <v>38.289000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>A33+375</f>
+        <v>4875</v>
+      </c>
+      <c r="B34">
+        <v>9.5619999999999994</v>
+      </c>
+      <c r="C34">
+        <v>39.768000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f>A34+375</f>
+        <v>5250</v>
+      </c>
+      <c r="B35">
+        <v>14.794</v>
+      </c>
+      <c r="C35">
+        <v>39.274999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>A35+375</f>
+        <v>5625</v>
+      </c>
+      <c r="B36">
+        <v>20.748000000000001</v>
+      </c>
+      <c r="C36">
+        <v>38.289000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>A36+375</f>
+        <v>6000</v>
+      </c>
+      <c r="B37">
+        <v>53.404000000000003</v>
+      </c>
+      <c r="C37">
+        <v>18.405000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>A37+375</f>
+        <v>6375</v>
+      </c>
+      <c r="B38">
+        <v>28.687000000000001</v>
+      </c>
+      <c r="C38">
+        <v>39.027999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>A38+375</f>
+        <v>6750</v>
+      </c>
+      <c r="B39">
+        <v>62.424999999999997</v>
+      </c>
+      <c r="C39">
+        <v>18.405000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>A39+375</f>
+        <v>7125</v>
+      </c>
+      <c r="B40">
+        <v>65.492000000000004</v>
+      </c>
+      <c r="C40">
+        <v>19.390999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>A40+375</f>
+        <v>7500</v>
+      </c>
+      <c r="B41">
+        <v>72.167000000000002</v>
+      </c>
+      <c r="C41">
+        <v>17.911999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -23046,7 +23299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7418414-B462-461D-974A-ACA228759ED6}">
   <dimension ref="P6:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AG1" workbookViewId="0">
       <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
@@ -23057,14 +23310,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="16:17" x14ac:dyDescent="0.3">
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="16:17" x14ac:dyDescent="0.3">
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="16:17" x14ac:dyDescent="0.3">
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
